--- a/storage/app/public/Download/template_absensi.xlsx
+++ b/storage/app/public/Download/template_absensi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ngampus yakkk\semester 7\sai\dummy_data\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\DataKaryawan\storage\app\public\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF653E44-C870-4620-8CF6-CB18C7C7C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F8312D-1256-4A40-8A14-E502B7AE73F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F18E0EEF-98A6-4085-8CA6-463BBFD5D8DA}"/>
   </bookViews>
@@ -59,7 +59,7 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -69,12 +69,12 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Jenis tidak boleh kosong dan maksimal terdiri dari 3 karakter</t>
+          <t>Jenis tidak boleh kosong dan maksimal terdiri dari 3 karakter. Data yang diterima hanya SD, S, I, A, ITD, ICP, TD.</t>
         </r>
       </text>
     </comment>
@@ -132,7 +132,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>bisa diisi kosong, -, atau 0</t>
+          <t xml:space="preserve">bisa diisi kosong, -, atau 0. Data harus memiliki format </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>time</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
         </r>
       </text>
     </comment>
@@ -156,7 +175,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>bisa diisi kosong, -, atau 0</t>
+          <t xml:space="preserve">bisa diisi kosong, -, atau 0. Data harus memiliki format </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>time.</t>
         </r>
       </text>
     </comment>
@@ -190,7 +219,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +250,19 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -391,22 +433,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -524,26 +550,42 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -560,7 +602,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C1F4663-956A-4ED9-9590-3C2CD6FF0F3C}" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C1F4663-956A-4ED9-9590-3C2CD6FF0F3C}" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E50" xr:uid="{0C1F4663-956A-4ED9-9590-3C2CD6FF0F3C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -569,11 +611,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{14A0950F-A148-4D14-B899-E43CA0E0EBCD}" name="nik" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{DEDA3724-5BAE-422A-939E-912ADD8E431C}" name="jenis" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8BEF2374-3FF3-48C9-B7DD-D1F02F3E7453}" name="tanggal" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{668782E7-55CF-407A-B72D-39E2D797323A}" name="jam_masuk" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{113B9213-1CFC-4709-9744-E955D35237D1}" name="jam_pulang" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{14A0950F-A148-4D14-B899-E43CA0E0EBCD}" name="nik" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DEDA3724-5BAE-422A-939E-912ADD8E431C}" name="jenis" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8BEF2374-3FF3-48C9-B7DD-D1F02F3E7453}" name="tanggal" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{668782E7-55CF-407A-B72D-39E2D797323A}" name="jam_masuk" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{113B9213-1CFC-4709-9744-E955D35237D1}" name="jam_pulang" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,7 +921,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,7 +929,7 @@
     <col min="1" max="1" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
     <col min="7" max="7" width="54.1796875" customWidth="1"/>
   </cols>
   <sheetData>
